--- a/data/strategic behaviours/Strategic Behaviour 2.xlsx
+++ b/data/strategic behaviours/Strategic Behaviour 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherholland/Documents/A1_Current/PhD/Research Projects/Robots P2/Robots_Analysis_V2/data/strategic behaviours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82B7B6-0E6E-3C49-84EE-9E6BCFB7AFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED446BD-86CC-144D-8210-9DA347D59898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="2360" windowWidth="17280" windowHeight="21580" xr2:uid="{22E4E5FB-B30D-8B43-9832-FC0F39954998}"/>
+    <workbookView xWindow="10720" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{22E4E5FB-B30D-8B43-9832-FC0F39954998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9968B-4805-3B47-A565-1DF5797C36A9}">
-  <dimension ref="A1:F730"/>
+  <dimension ref="A1:F728"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="F404" sqref="F404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7296,10 +7296,10 @@
         <v>14</v>
       </c>
       <c r="B404">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>14</v>
       </c>
       <c r="B405">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -7330,16 +7330,16 @@
         <v>14</v>
       </c>
       <c r="B406">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -7347,27 +7347,27 @@
         <v>14</v>
       </c>
       <c r="B407">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D407">
         <v>1</v>
       </c>
       <c r="E407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B408">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -7381,13 +7381,13 @@
         <v>15</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -7398,13 +7398,13 @@
         <v>15</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -7415,13 +7415,13 @@
         <v>15</v>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         <v>15</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -7449,16 +7449,16 @@
         <v>15</v>
       </c>
       <c r="B413">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D413">
         <v>0</v>
       </c>
       <c r="E413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -7466,13 +7466,13 @@
         <v>15</v>
       </c>
       <c r="B414">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -7483,10 +7483,10 @@
         <v>15</v>
       </c>
       <c r="B415">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -7500,13 +7500,13 @@
         <v>15</v>
       </c>
       <c r="B416">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -7517,10 +7517,10 @@
         <v>15</v>
       </c>
       <c r="B417">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D417">
         <v>0</v>
@@ -7534,13 +7534,13 @@
         <v>15</v>
       </c>
       <c r="B418">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C418">
         <v>0</v>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E418">
         <v>0</v>
@@ -7551,10 +7551,10 @@
         <v>15</v>
       </c>
       <c r="B419">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -7568,13 +7568,13 @@
         <v>15</v>
       </c>
       <c r="B420">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -7585,16 +7585,16 @@
         <v>15</v>
       </c>
       <c r="B421">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D421">
         <v>0</v>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -7602,16 +7602,16 @@
         <v>15</v>
       </c>
       <c r="B422">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -7619,10 +7619,10 @@
         <v>15</v>
       </c>
       <c r="B423">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -7636,16 +7636,16 @@
         <v>15</v>
       </c>
       <c r="B424">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -7653,16 +7653,16 @@
         <v>15</v>
       </c>
       <c r="B425">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -7670,10 +7670,10 @@
         <v>15</v>
       </c>
       <c r="B426">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -7687,13 +7687,13 @@
         <v>15</v>
       </c>
       <c r="B427">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C427">
         <v>0</v>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>15</v>
       </c>
       <c r="B428">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E428">
         <v>0</v>
@@ -7721,13 +7721,13 @@
         <v>15</v>
       </c>
       <c r="B429">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>15</v>
       </c>
       <c r="B430">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C430">
         <v>0</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -7755,13 +7755,13 @@
         <v>15</v>
       </c>
       <c r="B431">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C431">
         <v>0</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -7772,13 +7772,13 @@
         <v>15</v>
       </c>
       <c r="B432">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E432">
         <v>0</v>
@@ -7789,10 +7789,10 @@
         <v>15</v>
       </c>
       <c r="B433">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D433">
         <v>1</v>
@@ -7806,7 +7806,7 @@
         <v>15</v>
       </c>
       <c r="B434">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>15</v>
       </c>
       <c r="B435">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C435">
         <v>0</v>
       </c>
       <c r="D435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E435">
         <v>0</v>
@@ -7840,13 +7840,13 @@
         <v>15</v>
       </c>
       <c r="B436">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -7857,13 +7857,13 @@
         <v>15</v>
       </c>
       <c r="B437">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C437">
         <v>1</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -7871,16 +7871,16 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B438">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E438">
         <v>0</v>
@@ -7891,13 +7891,13 @@
         <v>16</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -7908,13 +7908,13 @@
         <v>16</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C440">
         <v>0</v>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -7925,10 +7925,10 @@
         <v>16</v>
       </c>
       <c r="B441">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -7942,10 +7942,10 @@
         <v>16</v>
       </c>
       <c r="B442">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -7959,13 +7959,13 @@
         <v>16</v>
       </c>
       <c r="B443">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C443">
         <v>0</v>
       </c>
       <c r="D443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -7976,16 +7976,16 @@
         <v>16</v>
       </c>
       <c r="B444">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D444">
         <v>0</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -7993,7 +7993,7 @@
         <v>16</v>
       </c>
       <c r="B445">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -8010,16 +8010,16 @@
         <v>16</v>
       </c>
       <c r="B446">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D446">
         <v>0</v>
       </c>
       <c r="E446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -8027,16 +8027,16 @@
         <v>16</v>
       </c>
       <c r="B447">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -8044,16 +8044,16 @@
         <v>16</v>
       </c>
       <c r="B448">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D448">
         <v>1</v>
       </c>
       <c r="E448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -8061,16 +8061,16 @@
         <v>16</v>
       </c>
       <c r="B449">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -8078,16 +8078,16 @@
         <v>16</v>
       </c>
       <c r="B450">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -8095,13 +8095,13 @@
         <v>16</v>
       </c>
       <c r="B451">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C451">
         <v>0</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -8112,13 +8112,13 @@
         <v>16</v>
       </c>
       <c r="B452">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E452">
         <v>0</v>
@@ -8129,13 +8129,13 @@
         <v>16</v>
       </c>
       <c r="B453">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -8146,13 +8146,13 @@
         <v>16</v>
       </c>
       <c r="B454">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C454">
         <v>0</v>
       </c>
       <c r="D454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -8163,7 +8163,7 @@
         <v>16</v>
       </c>
       <c r="B455">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -8172,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -8180,7 +8180,7 @@
         <v>16</v>
       </c>
       <c r="B456">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -8197,16 +8197,16 @@
         <v>16</v>
       </c>
       <c r="B457">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -8214,16 +8214,16 @@
         <v>16</v>
       </c>
       <c r="B458">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -8231,7 +8231,7 @@
         <v>16</v>
       </c>
       <c r="B459">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -8248,16 +8248,16 @@
         <v>16</v>
       </c>
       <c r="B460">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C460">
         <v>1</v>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -8265,13 +8265,13 @@
         <v>16</v>
       </c>
       <c r="B461">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C461">
         <v>0</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -8282,16 +8282,16 @@
         <v>16</v>
       </c>
       <c r="B462">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
       <c r="D462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -8299,7 +8299,7 @@
         <v>16</v>
       </c>
       <c r="B463">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -8316,16 +8316,16 @@
         <v>16</v>
       </c>
       <c r="B464">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -8333,10 +8333,10 @@
         <v>16</v>
       </c>
       <c r="B465">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -8347,16 +8347,16 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B466">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C466">
         <v>0</v>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E466">
         <v>0</v>
@@ -8364,10 +8364,10 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B467">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -8384,13 +8384,13 @@
         <v>17</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C468">
         <v>0</v>
       </c>
       <c r="D468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E468">
         <v>0</v>
@@ -8401,16 +8401,16 @@
         <v>17</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C469">
         <v>1</v>
       </c>
       <c r="D469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -8418,13 +8418,13 @@
         <v>17</v>
       </c>
       <c r="B470">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E470">
         <v>0</v>
@@ -8435,16 +8435,16 @@
         <v>17</v>
       </c>
       <c r="B471">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D471">
         <v>0</v>
       </c>
       <c r="E471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -8452,10 +8452,10 @@
         <v>17</v>
       </c>
       <c r="B472">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -8469,16 +8469,16 @@
         <v>17</v>
       </c>
       <c r="B473">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -8486,10 +8486,10 @@
         <v>17</v>
       </c>
       <c r="B474">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -8503,16 +8503,16 @@
         <v>17</v>
       </c>
       <c r="B475">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D475">
         <v>0</v>
       </c>
       <c r="E475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -8520,10 +8520,10 @@
         <v>17</v>
       </c>
       <c r="B476">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -8537,10 +8537,10 @@
         <v>17</v>
       </c>
       <c r="B477">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -8554,10 +8554,10 @@
         <v>17</v>
       </c>
       <c r="B478">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -8571,13 +8571,13 @@
         <v>17</v>
       </c>
       <c r="B479">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C479">
         <v>1</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E479">
         <v>0</v>
@@ -8588,13 +8588,13 @@
         <v>17</v>
       </c>
       <c r="B480">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C480">
         <v>0</v>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E480">
         <v>0</v>
@@ -8605,13 +8605,13 @@
         <v>17</v>
       </c>
       <c r="B481">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C481">
         <v>1</v>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>17</v>
       </c>
       <c r="B482">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E482">
         <v>0</v>
@@ -8639,7 +8639,7 @@
         <v>17</v>
       </c>
       <c r="B483">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -8648,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -8656,10 +8656,10 @@
         <v>17</v>
       </c>
       <c r="B484">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -8673,16 +8673,16 @@
         <v>17</v>
       </c>
       <c r="B485">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D485">
         <v>0</v>
       </c>
       <c r="E485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -8690,13 +8690,13 @@
         <v>17</v>
       </c>
       <c r="B486">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C486">
         <v>0</v>
       </c>
       <c r="D486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E486">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>17</v>
       </c>
       <c r="B487">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E487">
         <v>0</v>
@@ -8724,13 +8724,13 @@
         <v>17</v>
       </c>
       <c r="B488">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C488">
         <v>0</v>
       </c>
       <c r="D488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E488">
         <v>0</v>
@@ -8741,10 +8741,10 @@
         <v>17</v>
       </c>
       <c r="B489">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -8758,13 +8758,13 @@
         <v>17</v>
       </c>
       <c r="B490">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
       <c r="D490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E490">
         <v>0</v>
@@ -8775,10 +8775,10 @@
         <v>17</v>
       </c>
       <c r="B491">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D491">
         <v>1</v>
@@ -8792,10 +8792,10 @@
         <v>17</v>
       </c>
       <c r="B492">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -8809,13 +8809,13 @@
         <v>17</v>
       </c>
       <c r="B493">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E493">
         <v>0</v>
@@ -8826,13 +8826,13 @@
         <v>17</v>
       </c>
       <c r="B494">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C494">
         <v>1</v>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E494">
         <v>0</v>
@@ -8843,10 +8843,10 @@
         <v>17</v>
       </c>
       <c r="B495">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>17</v>
       </c>
       <c r="B496">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -8874,10 +8874,10 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B497">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -8891,16 +8891,16 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B498">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C498">
         <v>0</v>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E498">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         <v>18</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E499">
         <v>0</v>
@@ -8928,7 +8928,7 @@
         <v>18</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>18</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -8962,13 +8962,13 @@
         <v>18</v>
       </c>
       <c r="B502">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E502">
         <v>0</v>
@@ -8979,16 +8979,16 @@
         <v>18</v>
       </c>
       <c r="B503">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -8996,13 +8996,13 @@
         <v>18</v>
       </c>
       <c r="B504">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E504">
         <v>0</v>
@@ -9013,16 +9013,16 @@
         <v>18</v>
       </c>
       <c r="B505">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
@@ -9030,13 +9030,13 @@
         <v>18</v>
       </c>
       <c r="B506">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E506">
         <v>0</v>
@@ -9047,16 +9047,16 @@
         <v>18</v>
       </c>
       <c r="B507">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -9064,7 +9064,7 @@
         <v>18</v>
       </c>
       <c r="B508">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -9081,16 +9081,16 @@
         <v>18</v>
       </c>
       <c r="B509">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -9098,16 +9098,16 @@
         <v>18</v>
       </c>
       <c r="B510">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C510">
         <v>1</v>
       </c>
       <c r="D510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -9115,16 +9115,16 @@
         <v>18</v>
       </c>
       <c r="B511">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C511">
         <v>0</v>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -9132,7 +9132,7 @@
         <v>18</v>
       </c>
       <c r="B512">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="E512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -9149,16 +9149,16 @@
         <v>18</v>
       </c>
       <c r="B513">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C513">
         <v>0</v>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -9166,13 +9166,13 @@
         <v>18</v>
       </c>
       <c r="B514">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C514">
         <v>1</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E514">
         <v>0</v>
@@ -9183,13 +9183,13 @@
         <v>18</v>
       </c>
       <c r="B515">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C515">
         <v>0</v>
       </c>
       <c r="D515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E515">
         <v>0</v>
@@ -9200,10 +9200,10 @@
         <v>18</v>
       </c>
       <c r="B516">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -9217,13 +9217,13 @@
         <v>18</v>
       </c>
       <c r="B517">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E517">
         <v>0</v>
@@ -9234,16 +9234,16 @@
         <v>18</v>
       </c>
       <c r="B518">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -9251,13 +9251,13 @@
         <v>18</v>
       </c>
       <c r="B519">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E519">
         <v>0</v>
@@ -9268,16 +9268,16 @@
         <v>18</v>
       </c>
       <c r="B520">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C520">
         <v>1</v>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -9285,16 +9285,16 @@
         <v>18</v>
       </c>
       <c r="B521">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D521">
         <v>0</v>
       </c>
       <c r="E521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -9302,10 +9302,10 @@
         <v>18</v>
       </c>
       <c r="B522">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -9319,7 +9319,7 @@
         <v>18</v>
       </c>
       <c r="B523">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="E523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
@@ -9336,13 +9336,13 @@
         <v>18</v>
       </c>
       <c r="B524">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C524">
         <v>0</v>
       </c>
       <c r="D524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E524">
         <v>0</v>
@@ -9353,13 +9353,13 @@
         <v>18</v>
       </c>
       <c r="B525">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E525">
         <v>0</v>
@@ -9370,13 +9370,13 @@
         <v>18</v>
       </c>
       <c r="B526">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E526">
         <v>0</v>
@@ -9384,30 +9384,30 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B527">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B528">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D528">
         <v>1</v>
@@ -9421,16 +9421,16 @@
         <v>19</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D529">
         <v>0</v>
       </c>
       <c r="E529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -9438,10 +9438,10 @@
         <v>19</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C530">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D530">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>19</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C531">
         <v>0</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E531">
         <v>0</v>
@@ -9472,16 +9472,16 @@
         <v>19</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C532">
         <v>1</v>
       </c>
       <c r="D532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -9489,13 +9489,13 @@
         <v>19</v>
       </c>
       <c r="B533">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C533">
         <v>0</v>
       </c>
       <c r="D533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E533">
         <v>0</v>
@@ -9506,16 +9506,16 @@
         <v>19</v>
       </c>
       <c r="B534">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C534">
         <v>1</v>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -9523,13 +9523,13 @@
         <v>19</v>
       </c>
       <c r="B535">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C535">
         <v>0</v>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E535">
         <v>0</v>
@@ -9540,13 +9540,13 @@
         <v>19</v>
       </c>
       <c r="B536">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E536">
         <v>0</v>
@@ -9557,16 +9557,16 @@
         <v>19</v>
       </c>
       <c r="B537">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -9574,13 +9574,13 @@
         <v>19</v>
       </c>
       <c r="B538">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C538">
         <v>0</v>
       </c>
       <c r="D538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E538">
         <v>0</v>
@@ -9591,16 +9591,16 @@
         <v>19</v>
       </c>
       <c r="B539">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C539">
         <v>1</v>
       </c>
       <c r="D539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -9608,16 +9608,16 @@
         <v>19</v>
       </c>
       <c r="B540">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -9625,13 +9625,13 @@
         <v>19</v>
       </c>
       <c r="B541">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E541">
         <v>0</v>
@@ -9642,13 +9642,13 @@
         <v>19</v>
       </c>
       <c r="B542">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C542">
         <v>1</v>
       </c>
       <c r="D542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E542">
         <v>1</v>
@@ -9659,7 +9659,7 @@
         <v>19</v>
       </c>
       <c r="B543">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -9676,16 +9676,16 @@
         <v>19</v>
       </c>
       <c r="B544">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D544">
         <v>1</v>
       </c>
       <c r="E544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
@@ -9693,13 +9693,13 @@
         <v>19</v>
       </c>
       <c r="B545">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C545">
         <v>0</v>
       </c>
       <c r="D545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E545">
         <v>0</v>
@@ -9710,13 +9710,13 @@
         <v>19</v>
       </c>
       <c r="B546">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C546">
         <v>0</v>
       </c>
       <c r="D546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E546">
         <v>0</v>
@@ -9727,10 +9727,10 @@
         <v>19</v>
       </c>
       <c r="B547">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D547">
         <v>1</v>
@@ -9744,13 +9744,13 @@
         <v>19</v>
       </c>
       <c r="B548">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C548">
         <v>0</v>
       </c>
       <c r="D548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E548">
         <v>0</v>
@@ -9761,13 +9761,13 @@
         <v>19</v>
       </c>
       <c r="B549">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E549">
         <v>0</v>
@@ -9778,13 +9778,13 @@
         <v>19</v>
       </c>
       <c r="B550">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C550">
         <v>0</v>
       </c>
       <c r="D550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E550">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>19</v>
       </c>
       <c r="B551">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C551">
         <v>0</v>
       </c>
       <c r="D551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E551">
         <v>0</v>
@@ -9812,13 +9812,13 @@
         <v>19</v>
       </c>
       <c r="B552">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E552">
         <v>0</v>
@@ -9826,10 +9826,10 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B553">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -9843,16 +9843,16 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B554">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E554">
         <v>0</v>
@@ -9863,10 +9863,10 @@
         <v>20</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C555">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D555">
         <v>1</v>
@@ -9880,13 +9880,13 @@
         <v>20</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E556">
         <v>0</v>
@@ -9897,10 +9897,10 @@
         <v>20</v>
       </c>
       <c r="B557">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -9914,13 +9914,13 @@
         <v>20</v>
       </c>
       <c r="B558">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E558">
         <v>0</v>
@@ -9931,10 +9931,10 @@
         <v>20</v>
       </c>
       <c r="B559">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D559">
         <v>1</v>
@@ -9948,7 +9948,7 @@
         <v>20</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>20</v>
       </c>
       <c r="B561">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D561">
         <v>1</v>
@@ -9982,16 +9982,16 @@
         <v>20</v>
       </c>
       <c r="B562">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D562">
         <v>0</v>
       </c>
       <c r="E562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -9999,10 +9999,10 @@
         <v>20</v>
       </c>
       <c r="B563">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D563">
         <v>1</v>
@@ -10016,16 +10016,16 @@
         <v>20</v>
       </c>
       <c r="B564">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D564">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
@@ -10033,13 +10033,13 @@
         <v>20</v>
       </c>
       <c r="B565">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E565">
         <v>0</v>
@@ -10050,16 +10050,16 @@
         <v>20</v>
       </c>
       <c r="B566">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C566">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D566">
         <v>1</v>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -10067,13 +10067,13 @@
         <v>20</v>
       </c>
       <c r="B567">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C567">
         <v>0</v>
       </c>
       <c r="D567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E567">
         <v>0</v>
@@ -10084,16 +10084,16 @@
         <v>20</v>
       </c>
       <c r="B568">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
@@ -10101,7 +10101,7 @@
         <v>20</v>
       </c>
       <c r="B569">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>20</v>
       </c>
       <c r="B570">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -10135,10 +10135,10 @@
         <v>20</v>
       </c>
       <c r="B571">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D571">
         <v>1</v>
@@ -10152,13 +10152,13 @@
         <v>20</v>
       </c>
       <c r="B572">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C572">
         <v>0</v>
       </c>
       <c r="D572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E572">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>20</v>
       </c>
       <c r="B573">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C573">
         <v>1</v>
@@ -10186,13 +10186,13 @@
         <v>20</v>
       </c>
       <c r="B574">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C574">
         <v>0</v>
       </c>
       <c r="D574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E574">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>20</v>
       </c>
       <c r="B575">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C575">
         <v>1</v>
       </c>
       <c r="D575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -10220,13 +10220,13 @@
         <v>20</v>
       </c>
       <c r="B576">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C576">
         <v>0</v>
       </c>
       <c r="D576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E576">
         <v>0</v>
@@ -10237,27 +10237,27 @@
         <v>20</v>
       </c>
       <c r="B577">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C577">
         <v>1</v>
       </c>
       <c r="D577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B578">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C578">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D578">
         <v>1</v>
@@ -10268,16 +10268,16 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B579">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E579">
         <v>0</v>
@@ -10288,13 +10288,13 @@
         <v>21</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C580">
         <v>1</v>
       </c>
       <c r="D580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E580">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>21</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -10322,13 +10322,13 @@
         <v>21</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D582">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E582">
         <v>0</v>
@@ -10339,10 +10339,10 @@
         <v>21</v>
       </c>
       <c r="B583">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D583">
         <v>0</v>
@@ -10356,10 +10356,10 @@
         <v>21</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C584">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D584">
         <v>1</v>
@@ -10373,13 +10373,13 @@
         <v>21</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C585">
         <v>1</v>
       </c>
       <c r="D585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E585">
         <v>0</v>
@@ -10390,16 +10390,16 @@
         <v>21</v>
       </c>
       <c r="B586">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C586">
         <v>1</v>
       </c>
       <c r="D586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
@@ -10407,13 +10407,13 @@
         <v>21</v>
       </c>
       <c r="B587">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E587">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>21</v>
       </c>
       <c r="B588">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D588">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
@@ -10441,13 +10441,13 @@
         <v>21</v>
       </c>
       <c r="B589">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E589">
         <v>0</v>
@@ -10458,7 +10458,7 @@
         <v>21</v>
       </c>
       <c r="B590">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -10475,13 +10475,13 @@
         <v>21</v>
       </c>
       <c r="B591">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E591">
         <v>0</v>
@@ -10492,13 +10492,13 @@
         <v>21</v>
       </c>
       <c r="B592">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C592">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E592">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>21</v>
       </c>
       <c r="B593">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D593">
         <v>0</v>
@@ -10526,10 +10526,10 @@
         <v>21</v>
       </c>
       <c r="B594">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D594">
         <v>0</v>
@@ -10543,13 +10543,13 @@
         <v>21</v>
       </c>
       <c r="B595">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D595">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E595">
         <v>0</v>
@@ -10560,13 +10560,13 @@
         <v>21</v>
       </c>
       <c r="B596">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E596">
         <v>0</v>
@@ -10577,13 +10577,13 @@
         <v>21</v>
       </c>
       <c r="B597">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C597">
         <v>0</v>
       </c>
       <c r="D597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E597">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>21</v>
       </c>
       <c r="B598">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -10611,10 +10611,10 @@
         <v>21</v>
       </c>
       <c r="B599">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D599">
         <v>0</v>
@@ -10628,10 +10628,10 @@
         <v>21</v>
       </c>
       <c r="B600">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D600">
         <v>1</v>
@@ -10645,7 +10645,7 @@
         <v>21</v>
       </c>
       <c r="B601">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C601">
         <v>1</v>
@@ -10662,13 +10662,13 @@
         <v>21</v>
       </c>
       <c r="B602">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E602">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>21</v>
       </c>
       <c r="B603">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D603">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E603">
         <v>0</v>
@@ -10696,13 +10696,13 @@
         <v>21</v>
       </c>
       <c r="B604">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E604">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>21</v>
       </c>
       <c r="B605">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -10730,13 +10730,13 @@
         <v>21</v>
       </c>
       <c r="B606">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C606">
         <v>1</v>
       </c>
       <c r="D606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E606">
         <v>0</v>
@@ -10747,13 +10747,13 @@
         <v>21</v>
       </c>
       <c r="B607">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C607">
         <v>0</v>
       </c>
       <c r="D607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E607">
         <v>0</v>
@@ -10764,13 +10764,13 @@
         <v>21</v>
       </c>
       <c r="B608">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C608">
         <v>1</v>
       </c>
       <c r="D608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E608">
         <v>0</v>
@@ -10778,30 +10778,30 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B609">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D609">
         <v>0</v>
       </c>
       <c r="E609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B610">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D610">
         <v>1</v>
@@ -10815,16 +10815,16 @@
         <v>22</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D611">
         <v>0</v>
       </c>
       <c r="E611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.2">
@@ -10832,10 +10832,10 @@
         <v>22</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D612">
         <v>1</v>
@@ -10849,13 +10849,13 @@
         <v>22</v>
       </c>
       <c r="B613">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C613">
         <v>0</v>
       </c>
       <c r="D613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E613">
         <v>0</v>
@@ -10866,7 +10866,7 @@
         <v>22</v>
       </c>
       <c r="B614">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -10883,13 +10883,13 @@
         <v>22</v>
       </c>
       <c r="B615">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C615">
         <v>0</v>
       </c>
       <c r="D615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E615">
         <v>0</v>
@@ -10900,16 +10900,16 @@
         <v>22</v>
       </c>
       <c r="B616">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C616">
         <v>1</v>
       </c>
       <c r="D616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
@@ -10917,7 +10917,7 @@
         <v>22</v>
       </c>
       <c r="B617">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -10934,16 +10934,16 @@
         <v>22</v>
       </c>
       <c r="B618">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.2">
@@ -10951,13 +10951,13 @@
         <v>22</v>
       </c>
       <c r="B619">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E619">
         <v>0</v>
@@ -10968,13 +10968,13 @@
         <v>22</v>
       </c>
       <c r="B620">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E620">
         <v>0</v>
@@ -10985,16 +10985,16 @@
         <v>22</v>
       </c>
       <c r="B621">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C621">
         <v>1</v>
       </c>
       <c r="D621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
@@ -11002,13 +11002,13 @@
         <v>22</v>
       </c>
       <c r="B622">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C622">
         <v>1</v>
       </c>
       <c r="D622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E622">
         <v>0</v>
@@ -11019,16 +11019,16 @@
         <v>22</v>
       </c>
       <c r="B623">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D623">
         <v>0</v>
       </c>
       <c r="E623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.2">
@@ -11036,10 +11036,10 @@
         <v>22</v>
       </c>
       <c r="B624">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -11053,13 +11053,13 @@
         <v>22</v>
       </c>
       <c r="B625">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C625">
         <v>0</v>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E625">
         <v>0</v>
@@ -11070,13 +11070,13 @@
         <v>22</v>
       </c>
       <c r="B626">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C626">
         <v>0</v>
       </c>
       <c r="D626">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E626">
         <v>0</v>
@@ -11087,10 +11087,10 @@
         <v>22</v>
       </c>
       <c r="B627">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D627">
         <v>1</v>
@@ -11104,10 +11104,10 @@
         <v>22</v>
       </c>
       <c r="B628">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -11121,13 +11121,13 @@
         <v>22</v>
       </c>
       <c r="B629">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E629">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>22</v>
       </c>
       <c r="B630">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D630">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E630">
         <v>0</v>
@@ -11155,16 +11155,16 @@
         <v>22</v>
       </c>
       <c r="B631">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D631">
         <v>0</v>
       </c>
       <c r="E631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
@@ -11172,10 +11172,10 @@
         <v>22</v>
       </c>
       <c r="B632">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D632">
         <v>1</v>
@@ -11189,16 +11189,16 @@
         <v>22</v>
       </c>
       <c r="B633">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D633">
         <v>0</v>
       </c>
       <c r="E633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
@@ -11206,10 +11206,10 @@
         <v>22</v>
       </c>
       <c r="B634">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D634">
         <v>1</v>
@@ -11223,13 +11223,13 @@
         <v>22</v>
       </c>
       <c r="B635">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E635">
         <v>0</v>
@@ -11240,16 +11240,16 @@
         <v>22</v>
       </c>
       <c r="B636">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
@@ -11257,10 +11257,10 @@
         <v>22</v>
       </c>
       <c r="B637">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D637">
         <v>1</v>
@@ -11274,16 +11274,16 @@
         <v>22</v>
       </c>
       <c r="B638">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C638">
         <v>1</v>
       </c>
       <c r="D638">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
@@ -11291,13 +11291,13 @@
         <v>22</v>
       </c>
       <c r="B639">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C639">
         <v>0</v>
       </c>
       <c r="D639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E639">
         <v>0</v>
@@ -11308,13 +11308,13 @@
         <v>22</v>
       </c>
       <c r="B640">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C640">
         <v>1</v>
       </c>
       <c r="D640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E640">
         <v>0</v>
@@ -11322,16 +11322,16 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B641">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C641">
         <v>0</v>
       </c>
       <c r="D641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E641">
         <v>0</v>
@@ -11339,13 +11339,13 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A642">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B642">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -11359,13 +11359,13 @@
         <v>23</v>
       </c>
       <c r="B643">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D643">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E643">
         <v>0</v>
@@ -11376,16 +11376,16 @@
         <v>23</v>
       </c>
       <c r="B644">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
@@ -11393,13 +11393,13 @@
         <v>23</v>
       </c>
       <c r="B645">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C645">
         <v>1</v>
       </c>
       <c r="D645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E645">
         <v>0</v>
@@ -11410,13 +11410,13 @@
         <v>23</v>
       </c>
       <c r="B646">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E646">
         <v>1</v>
@@ -11427,10 +11427,10 @@
         <v>23</v>
       </c>
       <c r="B647">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D647">
         <v>1</v>
@@ -11444,16 +11444,16 @@
         <v>23</v>
       </c>
       <c r="B648">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D648">
         <v>0</v>
       </c>
       <c r="E648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.2">
@@ -11461,10 +11461,10 @@
         <v>23</v>
       </c>
       <c r="B649">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -11478,10 +11478,10 @@
         <v>23</v>
       </c>
       <c r="B650">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D650">
         <v>0</v>
@@ -11495,10 +11495,10 @@
         <v>23</v>
       </c>
       <c r="B651">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D651">
         <v>1</v>
@@ -11512,7 +11512,7 @@
         <v>23</v>
       </c>
       <c r="B652">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -11529,10 +11529,10 @@
         <v>23</v>
       </c>
       <c r="B653">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C653">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D653">
         <v>1</v>
@@ -11546,13 +11546,13 @@
         <v>23</v>
       </c>
       <c r="B654">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C654">
         <v>0</v>
       </c>
       <c r="D654">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E654">
         <v>0</v>
@@ -11563,13 +11563,13 @@
         <v>23</v>
       </c>
       <c r="B655">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C655">
         <v>1</v>
       </c>
       <c r="D655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E655">
         <v>0</v>
@@ -11580,10 +11580,10 @@
         <v>23</v>
       </c>
       <c r="B656">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C656">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D656">
         <v>1</v>
@@ -11597,13 +11597,13 @@
         <v>23</v>
       </c>
       <c r="B657">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D657">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E657">
         <v>0</v>
@@ -11614,13 +11614,13 @@
         <v>23</v>
       </c>
       <c r="B658">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C658">
         <v>1</v>
       </c>
       <c r="D658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E658">
         <v>0</v>
@@ -11631,13 +11631,13 @@
         <v>23</v>
       </c>
       <c r="B659">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C659">
         <v>0</v>
       </c>
       <c r="D659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E659">
         <v>0</v>
@@ -11648,13 +11648,13 @@
         <v>23</v>
       </c>
       <c r="B660">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D660">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E660">
         <v>0</v>
@@ -11665,7 +11665,7 @@
         <v>23</v>
       </c>
       <c r="B661">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -11682,13 +11682,13 @@
         <v>23</v>
       </c>
       <c r="B662">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C662">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E662">
         <v>0</v>
@@ -11699,13 +11699,13 @@
         <v>23</v>
       </c>
       <c r="B663">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E663">
         <v>0</v>
@@ -11716,10 +11716,10 @@
         <v>23</v>
       </c>
       <c r="B664">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D664">
         <v>0</v>
@@ -11733,10 +11733,10 @@
         <v>23</v>
       </c>
       <c r="B665">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D665">
         <v>1</v>
@@ -11750,13 +11750,13 @@
         <v>23</v>
       </c>
       <c r="B666">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C666">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D666">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E666">
         <v>0</v>
@@ -11767,13 +11767,13 @@
         <v>23</v>
       </c>
       <c r="B667">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E667">
         <v>0</v>
@@ -11784,13 +11784,13 @@
         <v>23</v>
       </c>
       <c r="B668">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C668">
         <v>1</v>
       </c>
       <c r="D668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E668">
         <v>0</v>
@@ -11801,10 +11801,10 @@
         <v>23</v>
       </c>
       <c r="B669">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D669">
         <v>0</v>
@@ -11818,13 +11818,13 @@
         <v>23</v>
       </c>
       <c r="B670">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E670">
         <v>0</v>
@@ -11835,13 +11835,13 @@
         <v>23</v>
       </c>
       <c r="B671">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E671">
         <v>0</v>
@@ -11849,13 +11849,13 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B672">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C672">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -11866,13 +11866,13 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B673">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D673">
         <v>1</v>
@@ -11886,13 +11886,13 @@
         <v>24</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E674">
         <v>0</v>
@@ -11903,16 +11903,16 @@
         <v>24</v>
       </c>
       <c r="B675">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C675">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.2">
@@ -11920,13 +11920,13 @@
         <v>24</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C676">
         <v>0</v>
       </c>
       <c r="D676">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E676">
         <v>0</v>
@@ -11937,7 +11937,7 @@
         <v>24</v>
       </c>
       <c r="B677">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C677">
         <v>1</v>
@@ -11954,13 +11954,13 @@
         <v>24</v>
       </c>
       <c r="B678">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C678">
         <v>0</v>
       </c>
       <c r="D678">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E678">
         <v>0</v>
@@ -11971,16 +11971,16 @@
         <v>24</v>
       </c>
       <c r="B679">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C679">
         <v>1</v>
       </c>
       <c r="D679">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
@@ -11988,13 +11988,13 @@
         <v>24</v>
       </c>
       <c r="B680">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E680">
         <v>0</v>
@@ -12005,13 +12005,13 @@
         <v>24</v>
       </c>
       <c r="B681">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E681">
         <v>0</v>
@@ -12022,10 +12022,10 @@
         <v>24</v>
       </c>
       <c r="B682">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -12039,10 +12039,10 @@
         <v>24</v>
       </c>
       <c r="B683">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D683">
         <v>0</v>
@@ -12056,10 +12056,10 @@
         <v>24</v>
       </c>
       <c r="B684">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C684">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D684">
         <v>1</v>
@@ -12073,7 +12073,7 @@
         <v>24</v>
       </c>
       <c r="B685">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C685">
         <v>1</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="E685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.2">
@@ -12090,10 +12090,10 @@
         <v>24</v>
       </c>
       <c r="B686">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -12107,16 +12107,16 @@
         <v>24</v>
       </c>
       <c r="B687">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D687">
         <v>0</v>
       </c>
       <c r="E687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.2">
@@ -12124,13 +12124,13 @@
         <v>24</v>
       </c>
       <c r="B688">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C688">
         <v>0</v>
       </c>
       <c r="D688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E688">
         <v>0</v>
@@ -12141,13 +12141,13 @@
         <v>24</v>
       </c>
       <c r="B689">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
       <c r="D689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E689">
         <v>0</v>
@@ -12158,16 +12158,16 @@
         <v>24</v>
       </c>
       <c r="B690">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D690">
         <v>0</v>
       </c>
       <c r="E690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
@@ -12175,10 +12175,10 @@
         <v>24</v>
       </c>
       <c r="B691">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D691">
         <v>1</v>
@@ -12192,16 +12192,16 @@
         <v>24</v>
       </c>
       <c r="B692">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.2">
@@ -12209,16 +12209,16 @@
         <v>24</v>
       </c>
       <c r="B693">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C693">
         <v>1</v>
       </c>
       <c r="D693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
@@ -12226,10 +12226,10 @@
         <v>24</v>
       </c>
       <c r="B694">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C694">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -12243,16 +12243,16 @@
         <v>24</v>
       </c>
       <c r="B695">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D695">
         <v>0</v>
       </c>
       <c r="E695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.2">
@@ -12260,10 +12260,10 @@
         <v>24</v>
       </c>
       <c r="B696">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -12277,13 +12277,13 @@
         <v>24</v>
       </c>
       <c r="B697">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E697">
         <v>0</v>
@@ -12294,16 +12294,16 @@
         <v>24</v>
       </c>
       <c r="B698">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
@@ -12311,13 +12311,13 @@
         <v>24</v>
       </c>
       <c r="B699">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E699">
         <v>0</v>
@@ -12328,16 +12328,16 @@
         <v>24</v>
       </c>
       <c r="B700">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D700">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.2">
@@ -12345,13 +12345,13 @@
         <v>24</v>
       </c>
       <c r="B701">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E701">
         <v>0</v>
@@ -12359,13 +12359,13 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A702">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B702">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C702">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D702">
         <v>1</v>
@@ -12376,13 +12376,13 @@
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A703">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B703">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -12396,13 +12396,13 @@
         <v>25</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E704">
         <v>0</v>
@@ -12413,13 +12413,13 @@
         <v>25</v>
       </c>
       <c r="B705">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C705">
         <v>0</v>
       </c>
       <c r="D705">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E705">
         <v>0</v>
@@ -12430,13 +12430,13 @@
         <v>25</v>
       </c>
       <c r="B706">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E706">
         <v>0</v>
@@ -12447,13 +12447,13 @@
         <v>25</v>
       </c>
       <c r="B707">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C707">
         <v>0</v>
       </c>
       <c r="D707">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E707">
         <v>0</v>
@@ -12464,13 +12464,13 @@
         <v>25</v>
       </c>
       <c r="B708">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E708">
         <v>0</v>
@@ -12481,7 +12481,7 @@
         <v>25</v>
       </c>
       <c r="B709">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -12498,16 +12498,16 @@
         <v>25</v>
       </c>
       <c r="B710">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
@@ -12515,16 +12515,16 @@
         <v>25</v>
       </c>
       <c r="B711">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.2">
@@ -12532,16 +12532,16 @@
         <v>25</v>
       </c>
       <c r="B712">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.2">
@@ -12549,13 +12549,13 @@
         <v>25</v>
       </c>
       <c r="B713">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C713">
         <v>1</v>
       </c>
       <c r="D713">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E713">
         <v>1</v>
@@ -12566,13 +12566,13 @@
         <v>25</v>
       </c>
       <c r="B714">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C714">
         <v>0</v>
       </c>
       <c r="D714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E714">
         <v>0</v>
@@ -12583,16 +12583,16 @@
         <v>25</v>
       </c>
       <c r="B715">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
@@ -12600,10 +12600,10 @@
         <v>25</v>
       </c>
       <c r="B716">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C716">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -12617,13 +12617,13 @@
         <v>25</v>
       </c>
       <c r="B717">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C717">
         <v>0</v>
       </c>
       <c r="D717">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E717">
         <v>0</v>
@@ -12634,13 +12634,13 @@
         <v>25</v>
       </c>
       <c r="B718">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C718">
         <v>1</v>
       </c>
       <c r="D718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E718">
         <v>0</v>
@@ -12651,10 +12651,10 @@
         <v>25</v>
       </c>
       <c r="B719">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D719">
         <v>1</v>
@@ -12668,7 +12668,7 @@
         <v>25</v>
       </c>
       <c r="B720">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C720">
         <v>1</v>
@@ -12685,10 +12685,10 @@
         <v>25</v>
       </c>
       <c r="B721">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D721">
         <v>1</v>
@@ -12702,10 +12702,10 @@
         <v>25</v>
       </c>
       <c r="B722">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D722">
         <v>0</v>
@@ -12719,16 +12719,16 @@
         <v>25</v>
       </c>
       <c r="B723">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D723">
         <v>1</v>
       </c>
       <c r="E723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
@@ -12736,7 +12736,7 @@
         <v>25</v>
       </c>
       <c r="B724">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C724">
         <v>0</v>
@@ -12753,16 +12753,16 @@
         <v>25</v>
       </c>
       <c r="B725">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D725">
         <v>1</v>
       </c>
       <c r="E725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
@@ -12770,13 +12770,13 @@
         <v>25</v>
       </c>
       <c r="B726">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C726">
         <v>0</v>
       </c>
       <c r="D726">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E726">
         <v>0</v>
@@ -12787,10 +12787,10 @@
         <v>25</v>
       </c>
       <c r="B727">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C727">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -12804,49 +12804,15 @@
         <v>25</v>
       </c>
       <c r="B728">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C728">
         <v>0</v>
       </c>
       <c r="D728">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E728">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A729">
-        <v>25</v>
-      </c>
-      <c r="B729">
-        <v>26</v>
-      </c>
-      <c r="C729">
-        <v>1</v>
-      </c>
-      <c r="D729">
-        <v>1</v>
-      </c>
-      <c r="E729">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A730">
-        <v>25</v>
-      </c>
-      <c r="B730">
-        <v>27</v>
-      </c>
-      <c r="C730">
-        <v>0</v>
-      </c>
-      <c r="D730">
-        <v>0</v>
-      </c>
-      <c r="E730">
         <v>0</v>
       </c>
     </row>

--- a/data/strategic behaviours/Strategic Behaviour 2.xlsx
+++ b/data/strategic behaviours/Strategic Behaviour 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherholland/Documents/A1_Current/PhD/Research Projects/Robots P2/Robots_Analysis_V2/data/strategic behaviours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED446BD-86CC-144D-8210-9DA347D59898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FCDEC-45FE-8947-91A5-DB871B884530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{22E4E5FB-B30D-8B43-9832-FC0F39954998}"/>
+    <workbookView xWindow="480" yWindow="1180" windowWidth="17280" windowHeight="21580" xr2:uid="{22E4E5FB-B30D-8B43-9832-FC0F39954998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9968B-4805-3B47-A565-1DF5797C36A9}">
-  <dimension ref="A1:F728"/>
+  <dimension ref="A1:F729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="F404" sqref="F404"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="F438" sqref="F438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7871,16 +7871,16 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E438">
         <v>0</v>
@@ -7891,13 +7891,13 @@
         <v>16</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -7908,13 +7908,13 @@
         <v>16</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C440">
         <v>0</v>
       </c>
       <c r="D440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -7925,10 +7925,10 @@
         <v>16</v>
       </c>
       <c r="B441">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -7942,10 +7942,10 @@
         <v>16</v>
       </c>
       <c r="B442">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -7959,13 +7959,13 @@
         <v>16</v>
       </c>
       <c r="B443">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C443">
         <v>0</v>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -7976,16 +7976,16 @@
         <v>16</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D444">
         <v>0</v>
       </c>
       <c r="E444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -7993,7 +7993,7 @@
         <v>16</v>
       </c>
       <c r="B445">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -8010,16 +8010,16 @@
         <v>16</v>
       </c>
       <c r="B446">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D446">
         <v>0</v>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -8027,16 +8027,16 @@
         <v>16</v>
       </c>
       <c r="B447">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -8044,16 +8044,16 @@
         <v>16</v>
       </c>
       <c r="B448">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D448">
         <v>1</v>
       </c>
       <c r="E448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -8061,16 +8061,16 @@
         <v>16</v>
       </c>
       <c r="B449">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -8078,16 +8078,16 @@
         <v>16</v>
       </c>
       <c r="B450">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -8095,13 +8095,13 @@
         <v>16</v>
       </c>
       <c r="B451">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C451">
         <v>0</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>16</v>
       </c>
       <c r="B452">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -8129,13 +8129,13 @@
         <v>16</v>
       </c>
       <c r="B453">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -8146,10 +8146,10 @@
         <v>16</v>
       </c>
       <c r="B454">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -8163,16 +8163,16 @@
         <v>16</v>
       </c>
       <c r="B455">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D455">
         <v>1</v>
       </c>
       <c r="E455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -8180,16 +8180,16 @@
         <v>16</v>
       </c>
       <c r="B456">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D456">
         <v>1</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -8197,13 +8197,13 @@
         <v>16</v>
       </c>
       <c r="B457">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C457">
         <v>0</v>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -8214,16 +8214,16 @@
         <v>16</v>
       </c>
       <c r="B458">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D458">
         <v>0</v>
       </c>
       <c r="E458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -8231,16 +8231,16 @@
         <v>16</v>
       </c>
       <c r="B459">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D459">
         <v>0</v>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -8248,13 +8248,13 @@
         <v>16</v>
       </c>
       <c r="B460">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E460">
         <v>0</v>
@@ -8265,10 +8265,10 @@
         <v>16</v>
       </c>
       <c r="B461">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D461">
         <v>1</v>
@@ -8282,16 +8282,16 @@
         <v>16</v>
       </c>
       <c r="B462">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -8299,16 +8299,16 @@
         <v>16</v>
       </c>
       <c r="B463">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -8316,13 +8316,13 @@
         <v>16</v>
       </c>
       <c r="B464">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C464">
         <v>0</v>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E464">
         <v>0</v>
@@ -8333,13 +8333,13 @@
         <v>16</v>
       </c>
       <c r="B465">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E465">
         <v>0</v>
@@ -8347,13 +8347,13 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -8367,10 +8367,10 @@
         <v>17</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -8384,13 +8384,13 @@
         <v>17</v>
       </c>
       <c r="B468">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E468">
         <v>0</v>
@@ -8401,16 +8401,16 @@
         <v>17</v>
       </c>
       <c r="B469">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D469">
         <v>0</v>
       </c>
       <c r="E469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -8418,16 +8418,16 @@
         <v>17</v>
       </c>
       <c r="B470">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -8435,13 +8435,13 @@
         <v>17</v>
       </c>
       <c r="B471">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C471">
         <v>0</v>
       </c>
       <c r="D471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E471">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>17</v>
       </c>
       <c r="B472">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E472">
         <v>0</v>
@@ -8469,16 +8469,16 @@
         <v>17</v>
       </c>
       <c r="B473">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C473">
         <v>1</v>
       </c>
       <c r="D473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -8486,16 +8486,16 @@
         <v>17</v>
       </c>
       <c r="B474">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -8503,13 +8503,13 @@
         <v>17</v>
       </c>
       <c r="B475">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C475">
         <v>0</v>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E475">
         <v>0</v>
@@ -8520,13 +8520,13 @@
         <v>17</v>
       </c>
       <c r="B476">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E476">
         <v>0</v>
@@ -8537,13 +8537,13 @@
         <v>17</v>
       </c>
       <c r="B477">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C477">
         <v>1</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E477">
         <v>0</v>
@@ -8554,13 +8554,13 @@
         <v>17</v>
       </c>
       <c r="B478">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E478">
         <v>0</v>
@@ -8571,10 +8571,10 @@
         <v>17</v>
       </c>
       <c r="B479">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -8588,13 +8588,13 @@
         <v>17</v>
       </c>
       <c r="B480">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E480">
         <v>0</v>
@@ -8605,10 +8605,10 @@
         <v>17</v>
       </c>
       <c r="B481">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>17</v>
       </c>
       <c r="B482">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C482">
         <v>1</v>
       </c>
       <c r="D482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E482">
         <v>0</v>
@@ -8639,16 +8639,16 @@
         <v>17</v>
       </c>
       <c r="B483">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C483">
         <v>1</v>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -8656,16 +8656,16 @@
         <v>17</v>
       </c>
       <c r="B484">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -8673,13 +8673,13 @@
         <v>17</v>
       </c>
       <c r="B485">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C485">
         <v>0</v>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E485">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>17</v>
       </c>
       <c r="B486">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>17</v>
       </c>
       <c r="B487">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E487">
         <v>0</v>
@@ -8724,10 +8724,10 @@
         <v>17</v>
       </c>
       <c r="B488">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -8741,7 +8741,7 @@
         <v>17</v>
       </c>
       <c r="B489">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -8758,13 +8758,13 @@
         <v>17</v>
       </c>
       <c r="B490">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E490">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>17</v>
       </c>
       <c r="B491">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E491">
         <v>0</v>
@@ -8792,13 +8792,13 @@
         <v>17</v>
       </c>
       <c r="B492">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C492">
         <v>1</v>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E492">
         <v>0</v>
@@ -8809,10 +8809,10 @@
         <v>17</v>
       </c>
       <c r="B493">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -8826,13 +8826,13 @@
         <v>17</v>
       </c>
       <c r="B494">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E494">
         <v>0</v>
@@ -8843,13 +8843,13 @@
         <v>17</v>
       </c>
       <c r="B495">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E495">
         <v>0</v>
@@ -8860,13 +8860,13 @@
         <v>17</v>
       </c>
       <c r="B496">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E496">
         <v>0</v>
@@ -8874,16 +8874,16 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E497">
         <v>0</v>
@@ -8894,10 +8894,10 @@
         <v>18</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         <v>18</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C499">
         <v>0</v>
       </c>
       <c r="D499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E499">
         <v>0</v>
@@ -8928,13 +8928,13 @@
         <v>18</v>
       </c>
       <c r="B500">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C500">
         <v>0</v>
       </c>
       <c r="D500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E500">
         <v>0</v>
@@ -8945,13 +8945,13 @@
         <v>18</v>
       </c>
       <c r="B501">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C501">
         <v>0</v>
       </c>
       <c r="D501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E501">
         <v>0</v>
@@ -8962,10 +8962,10 @@
         <v>18</v>
       </c>
       <c r="B502">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -8979,16 +8979,16 @@
         <v>18</v>
       </c>
       <c r="B503">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C503">
         <v>1</v>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -8996,16 +8996,16 @@
         <v>18</v>
       </c>
       <c r="B504">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D504">
         <v>0</v>
       </c>
       <c r="E504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -9013,13 +9013,13 @@
         <v>18</v>
       </c>
       <c r="B505">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C505">
         <v>0</v>
       </c>
       <c r="D505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E505">
         <v>0</v>
@@ -9030,10 +9030,10 @@
         <v>18</v>
       </c>
       <c r="B506">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D506">
         <v>1</v>
@@ -9047,16 +9047,16 @@
         <v>18</v>
       </c>
       <c r="B507">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C507">
         <v>1</v>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -9064,16 +9064,16 @@
         <v>18</v>
       </c>
       <c r="B508">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C508">
         <v>1</v>
       </c>
       <c r="D508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -9081,10 +9081,10 @@
         <v>18</v>
       </c>
       <c r="B509">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -9098,16 +9098,16 @@
         <v>18</v>
       </c>
       <c r="B510">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -9115,10 +9115,10 @@
         <v>18</v>
       </c>
       <c r="B511">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D511">
         <v>0</v>
@@ -9132,16 +9132,16 @@
         <v>18</v>
       </c>
       <c r="B512">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D512">
         <v>0</v>
       </c>
       <c r="E512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -9149,13 +9149,13 @@
         <v>18</v>
       </c>
       <c r="B513">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E513">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>18</v>
       </c>
       <c r="B514">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D514">
         <v>1</v>
@@ -9183,13 +9183,13 @@
         <v>18</v>
       </c>
       <c r="B515">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E515">
         <v>0</v>
@@ -9200,13 +9200,13 @@
         <v>18</v>
       </c>
       <c r="B516">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C516">
         <v>0</v>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E516">
         <v>0</v>
@@ -9217,10 +9217,10 @@
         <v>18</v>
       </c>
       <c r="B517">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D517">
         <v>1</v>
@@ -9234,16 +9234,16 @@
         <v>18</v>
       </c>
       <c r="B518">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C518">
         <v>1</v>
       </c>
       <c r="D518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -9251,16 +9251,16 @@
         <v>18</v>
       </c>
       <c r="B519">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D519">
         <v>0</v>
       </c>
       <c r="E519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
@@ -9268,13 +9268,13 @@
         <v>18</v>
       </c>
       <c r="B520">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E520">
         <v>0</v>
@@ -9285,16 +9285,16 @@
         <v>18</v>
       </c>
       <c r="B521">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C521">
         <v>1</v>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -9302,16 +9302,16 @@
         <v>18</v>
       </c>
       <c r="B522">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -9319,13 +9319,13 @@
         <v>18</v>
       </c>
       <c r="B523">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E523">
         <v>0</v>
@@ -9336,10 +9336,10 @@
         <v>18</v>
       </c>
       <c r="B524">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -9353,13 +9353,13 @@
         <v>18</v>
       </c>
       <c r="B525">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C525">
         <v>0</v>
       </c>
       <c r="D525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E525">
         <v>0</v>
@@ -9370,10 +9370,10 @@
         <v>18</v>
       </c>
       <c r="B526">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D526">
         <v>1</v>
@@ -9384,19 +9384,19 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C527">
         <v>1</v>
       </c>
       <c r="D527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -9404,16 +9404,16 @@
         <v>19</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -9421,13 +9421,13 @@
         <v>19</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C529">
         <v>0</v>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E529">
         <v>0</v>
@@ -9438,13 +9438,13 @@
         <v>19</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E530">
         <v>0</v>
@@ -9455,10 +9455,10 @@
         <v>19</v>
       </c>
       <c r="B531">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D531">
         <v>1</v>
@@ -9472,16 +9472,16 @@
         <v>19</v>
       </c>
       <c r="B532">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -9489,16 +9489,16 @@
         <v>19</v>
       </c>
       <c r="B533">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D533">
         <v>0</v>
       </c>
       <c r="E533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -9506,13 +9506,13 @@
         <v>19</v>
       </c>
       <c r="B534">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E534">
         <v>0</v>
@@ -9523,10 +9523,10 @@
         <v>19</v>
       </c>
       <c r="B535">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D535">
         <v>1</v>
@@ -9540,13 +9540,13 @@
         <v>19</v>
       </c>
       <c r="B536">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C536">
         <v>0</v>
       </c>
       <c r="D536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E536">
         <v>0</v>
@@ -9557,16 +9557,16 @@
         <v>19</v>
       </c>
       <c r="B537">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D537">
         <v>0</v>
       </c>
       <c r="E537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -9574,16 +9574,16 @@
         <v>19</v>
       </c>
       <c r="B538">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -9591,10 +9591,10 @@
         <v>19</v>
       </c>
       <c r="B539">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D539">
         <v>1</v>
@@ -9608,16 +9608,16 @@
         <v>19</v>
       </c>
       <c r="B540">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C540">
         <v>1</v>
       </c>
       <c r="D540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -9625,16 +9625,16 @@
         <v>19</v>
       </c>
       <c r="B541">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D541">
         <v>0</v>
       </c>
       <c r="E541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
@@ -9642,16 +9642,16 @@
         <v>19</v>
       </c>
       <c r="B542">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
@@ -9659,16 +9659,16 @@
         <v>19</v>
       </c>
       <c r="B543">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
@@ -9676,13 +9676,13 @@
         <v>19</v>
       </c>
       <c r="B544">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C544">
         <v>0</v>
       </c>
       <c r="D544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E544">
         <v>0</v>
@@ -9693,7 +9693,7 @@
         <v>19</v>
       </c>
       <c r="B545">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -9710,13 +9710,13 @@
         <v>19</v>
       </c>
       <c r="B546">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C546">
         <v>0</v>
       </c>
       <c r="D546">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E546">
         <v>0</v>
@@ -9727,13 +9727,13 @@
         <v>19</v>
       </c>
       <c r="B547">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E547">
         <v>0</v>
@@ -9744,10 +9744,10 @@
         <v>19</v>
       </c>
       <c r="B548">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D548">
         <v>1</v>
@@ -9761,13 +9761,13 @@
         <v>19</v>
       </c>
       <c r="B549">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C549">
         <v>0</v>
       </c>
       <c r="D549">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E549">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>19</v>
       </c>
       <c r="B550">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>19</v>
       </c>
       <c r="B551">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C551">
         <v>0</v>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E551">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>19</v>
       </c>
       <c r="B552">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D552">
         <v>1</v>
@@ -9826,13 +9826,13 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C553">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D553">
         <v>1</v>
@@ -9846,13 +9846,13 @@
         <v>20</v>
       </c>
       <c r="B554">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C554">
         <v>0</v>
       </c>
       <c r="D554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E554">
         <v>0</v>
@@ -9863,13 +9863,13 @@
         <v>20</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E555">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>20</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C556">
         <v>1</v>
@@ -9897,10 +9897,10 @@
         <v>20</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C557">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -9914,13 +9914,13 @@
         <v>20</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C558">
         <v>0</v>
       </c>
       <c r="D558">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E558">
         <v>0</v>
@@ -9931,13 +9931,13 @@
         <v>20</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E559">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>20</v>
       </c>
       <c r="B560">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C560">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D560">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E560">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>20</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C561">
         <v>0</v>
       </c>
       <c r="D561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E561">
         <v>0</v>
@@ -9982,16 +9982,16 @@
         <v>20</v>
       </c>
       <c r="B562">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -9999,16 +9999,16 @@
         <v>20</v>
       </c>
       <c r="B563">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C563">
         <v>1</v>
       </c>
       <c r="D563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -10016,10 +10016,10 @@
         <v>20</v>
       </c>
       <c r="B564">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C564">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D564">
         <v>1</v>
@@ -10033,13 +10033,13 @@
         <v>20</v>
       </c>
       <c r="B565">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C565">
         <v>0</v>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E565">
         <v>0</v>
@@ -10050,16 +10050,16 @@
         <v>20</v>
       </c>
       <c r="B566">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -10067,16 +10067,16 @@
         <v>20</v>
       </c>
       <c r="B567">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D567">
         <v>1</v>
       </c>
       <c r="E567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
@@ -10084,13 +10084,13 @@
         <v>20</v>
       </c>
       <c r="B568">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C568">
         <v>0</v>
       </c>
       <c r="D568">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E568">
         <v>0</v>
@@ -10101,13 +10101,13 @@
         <v>20</v>
       </c>
       <c r="B569">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C569">
         <v>0</v>
       </c>
       <c r="D569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E569">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>20</v>
       </c>
       <c r="B570">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C570">
         <v>0</v>
       </c>
       <c r="D570">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E570">
         <v>0</v>
@@ -10135,13 +10135,13 @@
         <v>20</v>
       </c>
       <c r="B571">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E571">
         <v>0</v>
@@ -10152,10 +10152,10 @@
         <v>20</v>
       </c>
       <c r="B572">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D572">
         <v>1</v>
@@ -10169,10 +10169,10 @@
         <v>20</v>
       </c>
       <c r="B573">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D573">
         <v>1</v>
@@ -10186,13 +10186,13 @@
         <v>20</v>
       </c>
       <c r="B574">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C574">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D574">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E574">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>20</v>
       </c>
       <c r="B575">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D575">
         <v>0</v>
       </c>
       <c r="E575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -10220,16 +10220,16 @@
         <v>20</v>
       </c>
       <c r="B576">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D576">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
@@ -10237,10 +10237,10 @@
         <v>20</v>
       </c>
       <c r="B577">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D577">
         <v>1</v>
@@ -10251,10 +10251,10 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -10271,13 +10271,13 @@
         <v>21</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E579">
         <v>0</v>
@@ -10288,10 +10288,10 @@
         <v>21</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D580">
         <v>0</v>
@@ -10305,10 +10305,10 @@
         <v>21</v>
       </c>
       <c r="B581">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D581">
         <v>0</v>
@@ -10322,13 +10322,13 @@
         <v>21</v>
       </c>
       <c r="B582">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C582">
         <v>0</v>
       </c>
       <c r="D582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E582">
         <v>0</v>
@@ -10339,13 +10339,13 @@
         <v>21</v>
       </c>
       <c r="B583">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E583">
         <v>0</v>
@@ -10356,13 +10356,13 @@
         <v>21</v>
       </c>
       <c r="B584">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C584">
         <v>1</v>
       </c>
       <c r="D584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E584">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>21</v>
       </c>
       <c r="B585">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C585">
         <v>1</v>
@@ -10390,16 +10390,16 @@
         <v>21</v>
       </c>
       <c r="B586">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C586">
         <v>1</v>
       </c>
       <c r="D586">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
@@ -10407,16 +10407,16 @@
         <v>21</v>
       </c>
       <c r="B587">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D587">
         <v>0</v>
       </c>
       <c r="E587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
@@ -10424,13 +10424,13 @@
         <v>21</v>
       </c>
       <c r="B588">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C588">
         <v>0</v>
       </c>
       <c r="D588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E588">
         <v>0</v>
@@ -10441,10 +10441,10 @@
         <v>21</v>
       </c>
       <c r="B589">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D589">
         <v>1</v>
@@ -10458,10 +10458,10 @@
         <v>21</v>
       </c>
       <c r="B590">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C590">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D590">
         <v>1</v>
@@ -10475,13 +10475,13 @@
         <v>21</v>
       </c>
       <c r="B591">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C591">
         <v>0</v>
       </c>
       <c r="D591">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E591">
         <v>0</v>
@@ -10492,10 +10492,10 @@
         <v>21</v>
       </c>
       <c r="B592">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D592">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>21</v>
       </c>
       <c r="B593">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C593">
         <v>1</v>
@@ -10526,10 +10526,10 @@
         <v>21</v>
       </c>
       <c r="B594">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C594">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D594">
         <v>0</v>
@@ -10543,13 +10543,13 @@
         <v>21</v>
       </c>
       <c r="B595">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C595">
         <v>0</v>
       </c>
       <c r="D595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E595">
         <v>0</v>
@@ -10560,10 +10560,10 @@
         <v>21</v>
       </c>
       <c r="B596">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D596">
         <v>1</v>
@@ -10577,13 +10577,13 @@
         <v>21</v>
       </c>
       <c r="B597">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E597">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>21</v>
       </c>
       <c r="B598">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C598">
         <v>0</v>
       </c>
       <c r="D598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E598">
         <v>0</v>
@@ -10611,13 +10611,13 @@
         <v>21</v>
       </c>
       <c r="B599">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E599">
         <v>0</v>
@@ -10628,13 +10628,13 @@
         <v>21</v>
       </c>
       <c r="B600">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C600">
         <v>1</v>
       </c>
       <c r="D600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E600">
         <v>0</v>
@@ -10645,13 +10645,13 @@
         <v>21</v>
       </c>
       <c r="B601">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C601">
         <v>1</v>
       </c>
       <c r="D601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E601">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>21</v>
       </c>
       <c r="B602">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C602">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D602">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>21</v>
       </c>
       <c r="B603">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C603">
         <v>0</v>
       </c>
       <c r="D603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E603">
         <v>0</v>
@@ -10696,10 +10696,10 @@
         <v>21</v>
       </c>
       <c r="B604">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D604">
         <v>1</v>
@@ -10713,10 +10713,10 @@
         <v>21</v>
       </c>
       <c r="B605">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D605">
         <v>1</v>
@@ -10730,13 +10730,13 @@
         <v>21</v>
       </c>
       <c r="B606">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E606">
         <v>0</v>
@@ -10747,10 +10747,10 @@
         <v>21</v>
       </c>
       <c r="B607">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C607">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D607">
         <v>0</v>
@@ -10764,13 +10764,13 @@
         <v>21</v>
       </c>
       <c r="B608">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E608">
         <v>0</v>
@@ -10778,19 +10778,19 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C609">
         <v>1</v>
       </c>
       <c r="D609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
@@ -10798,16 +10798,16 @@
         <v>22</v>
       </c>
       <c r="B610">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
@@ -10815,13 +10815,13 @@
         <v>22</v>
       </c>
       <c r="B611">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C611">
         <v>0</v>
       </c>
       <c r="D611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E611">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>22</v>
       </c>
       <c r="B612">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E612">
         <v>0</v>
@@ -10849,10 +10849,10 @@
         <v>22</v>
       </c>
       <c r="B613">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D613">
         <v>1</v>
@@ -10866,10 +10866,10 @@
         <v>22</v>
       </c>
       <c r="B614">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D614">
         <v>1</v>
@@ -10883,13 +10883,13 @@
         <v>22</v>
       </c>
       <c r="B615">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C615">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D615">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E615">
         <v>0</v>
@@ -10900,16 +10900,16 @@
         <v>22</v>
       </c>
       <c r="B616">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D616">
         <v>0</v>
       </c>
       <c r="E616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
@@ -10917,16 +10917,16 @@
         <v>22</v>
       </c>
       <c r="B617">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D617">
         <v>0</v>
       </c>
       <c r="E617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.2">
@@ -10934,13 +10934,13 @@
         <v>22</v>
       </c>
       <c r="B618">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C618">
         <v>0</v>
       </c>
       <c r="D618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E618">
         <v>0</v>
@@ -10951,10 +10951,10 @@
         <v>22</v>
       </c>
       <c r="B619">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C619">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D619">
         <v>1</v>
@@ -10968,13 +10968,13 @@
         <v>22</v>
       </c>
       <c r="B620">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C620">
         <v>1</v>
       </c>
       <c r="D620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E620">
         <v>0</v>
@@ -10985,7 +10985,7 @@
         <v>22</v>
       </c>
       <c r="B621">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C621">
         <v>1</v>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="E621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
@@ -11002,16 +11002,16 @@
         <v>22</v>
       </c>
       <c r="B622">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C622">
         <v>1</v>
       </c>
       <c r="D622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.2">
@@ -11019,13 +11019,13 @@
         <v>22</v>
       </c>
       <c r="B623">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E623">
         <v>0</v>
@@ -11036,13 +11036,13 @@
         <v>22</v>
       </c>
       <c r="B624">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C624">
         <v>0</v>
       </c>
       <c r="D624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E624">
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>22</v>
       </c>
       <c r="B625">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -11070,13 +11070,13 @@
         <v>22</v>
       </c>
       <c r="B626">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C626">
         <v>0</v>
       </c>
       <c r="D626">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E626">
         <v>0</v>
@@ -11087,13 +11087,13 @@
         <v>22</v>
       </c>
       <c r="B627">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E627">
         <v>0</v>
@@ -11104,13 +11104,13 @@
         <v>22</v>
       </c>
       <c r="B628">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C628">
         <v>1</v>
       </c>
       <c r="D628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E628">
         <v>0</v>
@@ -11121,10 +11121,10 @@
         <v>22</v>
       </c>
       <c r="B629">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D629">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>22</v>
       </c>
       <c r="B630">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C630">
         <v>0</v>
       </c>
       <c r="D630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E630">
         <v>0</v>
@@ -11155,16 +11155,16 @@
         <v>22</v>
       </c>
       <c r="B631">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
@@ -11172,16 +11172,16 @@
         <v>22</v>
       </c>
       <c r="B632">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C632">
         <v>1</v>
       </c>
       <c r="D632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.2">
@@ -11189,13 +11189,13 @@
         <v>22</v>
       </c>
       <c r="B633">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E633">
         <v>0</v>
@@ -11206,13 +11206,13 @@
         <v>22</v>
       </c>
       <c r="B634">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C634">
         <v>0</v>
       </c>
       <c r="D634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E634">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>22</v>
       </c>
       <c r="B635">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D635">
         <v>1</v>
@@ -11240,16 +11240,16 @@
         <v>22</v>
       </c>
       <c r="B636">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C636">
         <v>1</v>
       </c>
       <c r="D636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
@@ -11257,16 +11257,16 @@
         <v>22</v>
       </c>
       <c r="B637">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C637">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
@@ -11274,10 +11274,10 @@
         <v>22</v>
       </c>
       <c r="B638">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D638">
         <v>1</v>
@@ -11291,13 +11291,13 @@
         <v>22</v>
       </c>
       <c r="B639">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E639">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>22</v>
       </c>
       <c r="B640">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D640">
         <v>0</v>
@@ -11322,16 +11322,16 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E641">
         <v>0</v>
@@ -11342,13 +11342,13 @@
         <v>23</v>
       </c>
       <c r="B642">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C642">
         <v>0</v>
       </c>
       <c r="D642">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E642">
         <v>0</v>
@@ -11359,10 +11359,10 @@
         <v>23</v>
       </c>
       <c r="B643">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C643">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -11376,16 +11376,16 @@
         <v>23</v>
       </c>
       <c r="B644">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C644">
         <v>1</v>
       </c>
       <c r="D644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
@@ -11393,7 +11393,7 @@
         <v>23</v>
       </c>
       <c r="B645">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C645">
         <v>1</v>
@@ -11402,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="E645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
@@ -11410,16 +11410,16 @@
         <v>23</v>
       </c>
       <c r="B646">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C646">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D646">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.2">
@@ -11427,16 +11427,16 @@
         <v>23</v>
       </c>
       <c r="B647">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C647">
         <v>0</v>
       </c>
       <c r="D647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.2">
@@ -11444,13 +11444,13 @@
         <v>23</v>
       </c>
       <c r="B648">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E648">
         <v>0</v>
@@ -11461,13 +11461,13 @@
         <v>23</v>
       </c>
       <c r="B649">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C649">
         <v>1</v>
       </c>
       <c r="D649">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E649">
         <v>0</v>
@@ -11478,13 +11478,13 @@
         <v>23</v>
       </c>
       <c r="B650">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C650">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D650">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E650">
         <v>0</v>
@@ -11495,13 +11495,13 @@
         <v>23</v>
       </c>
       <c r="B651">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C651">
         <v>0</v>
       </c>
       <c r="D651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E651">
         <v>0</v>
@@ -11512,13 +11512,13 @@
         <v>23</v>
       </c>
       <c r="B652">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C652">
         <v>0</v>
       </c>
       <c r="D652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E652">
         <v>0</v>
@@ -11529,13 +11529,13 @@
         <v>23</v>
       </c>
       <c r="B653">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E653">
         <v>0</v>
@@ -11546,10 +11546,10 @@
         <v>23</v>
       </c>
       <c r="B654">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C654">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D654">
         <v>1</v>
@@ -11563,13 +11563,13 @@
         <v>23</v>
       </c>
       <c r="B655">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D655">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E655">
         <v>0</v>
@@ -11580,13 +11580,13 @@
         <v>23</v>
       </c>
       <c r="B656">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C656">
         <v>1</v>
       </c>
       <c r="D656">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E656">
         <v>0</v>
@@ -11597,10 +11597,10 @@
         <v>23</v>
       </c>
       <c r="B657">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C657">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D657">
         <v>1</v>
@@ -11614,13 +11614,13 @@
         <v>23</v>
       </c>
       <c r="B658">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D658">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E658">
         <v>0</v>
@@ -11631,10 +11631,10 @@
         <v>23</v>
       </c>
       <c r="B659">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C659">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D659">
         <v>0</v>
@@ -11648,13 +11648,13 @@
         <v>23</v>
       </c>
       <c r="B660">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C660">
         <v>0</v>
       </c>
       <c r="D660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E660">
         <v>0</v>
@@ -11665,13 +11665,13 @@
         <v>23</v>
       </c>
       <c r="B661">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C661">
         <v>0</v>
       </c>
       <c r="D661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E661">
         <v>0</v>
@@ -11682,10 +11682,10 @@
         <v>23</v>
       </c>
       <c r="B662">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -11699,13 +11699,13 @@
         <v>23</v>
       </c>
       <c r="B663">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C663">
         <v>1</v>
       </c>
       <c r="D663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E663">
         <v>0</v>
@@ -11716,13 +11716,13 @@
         <v>23</v>
       </c>
       <c r="B664">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E664">
         <v>0</v>
@@ -11733,13 +11733,13 @@
         <v>23</v>
       </c>
       <c r="B665">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C665">
         <v>0</v>
       </c>
       <c r="D665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E665">
         <v>0</v>
@@ -11750,10 +11750,10 @@
         <v>23</v>
       </c>
       <c r="B666">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C666">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D666">
         <v>1</v>
@@ -11767,13 +11767,13 @@
         <v>23</v>
       </c>
       <c r="B667">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C667">
         <v>1</v>
       </c>
       <c r="D667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E667">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>23</v>
       </c>
       <c r="B668">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C668">
         <v>1</v>
@@ -11801,10 +11801,10 @@
         <v>23</v>
       </c>
       <c r="B669">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C669">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D669">
         <v>0</v>
@@ -11818,13 +11818,13 @@
         <v>23</v>
       </c>
       <c r="B670">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C670">
         <v>0</v>
       </c>
       <c r="D670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E670">
         <v>0</v>
@@ -11835,10 +11835,10 @@
         <v>23</v>
       </c>
       <c r="B671">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D671">
         <v>1</v>
@@ -11849,10 +11849,10 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -11869,10 +11869,10 @@
         <v>24</v>
       </c>
       <c r="B673">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C673">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D673">
         <v>1</v>
@@ -11886,13 +11886,13 @@
         <v>24</v>
       </c>
       <c r="B674">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C674">
         <v>0</v>
       </c>
       <c r="D674">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E674">
         <v>0</v>
@@ -11903,16 +11903,16 @@
         <v>24</v>
       </c>
       <c r="B675">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D675">
         <v>0</v>
       </c>
       <c r="E675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.2">
@@ -11920,16 +11920,16 @@
         <v>24</v>
       </c>
       <c r="B676">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C676">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D676">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.2">
@@ -11937,16 +11937,16 @@
         <v>24</v>
       </c>
       <c r="B677">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C677">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D677">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.2">
@@ -11954,16 +11954,16 @@
         <v>24</v>
       </c>
       <c r="B678">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C678">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D678">
         <v>0</v>
       </c>
       <c r="E678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.2">
@@ -11971,13 +11971,13 @@
         <v>24</v>
       </c>
       <c r="B679">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E679">
         <v>0</v>
@@ -11988,7 +11988,7 @@
         <v>24</v>
       </c>
       <c r="B680">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C680">
         <v>1</v>
@@ -12005,13 +12005,13 @@
         <v>24</v>
       </c>
       <c r="B681">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E681">
         <v>0</v>
@@ -12022,13 +12022,13 @@
         <v>24</v>
       </c>
       <c r="B682">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C682">
         <v>0</v>
       </c>
       <c r="D682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E682">
         <v>0</v>
@@ -12039,13 +12039,13 @@
         <v>24</v>
       </c>
       <c r="B683">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E683">
         <v>0</v>
@@ -12056,13 +12056,13 @@
         <v>24</v>
       </c>
       <c r="B684">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C684">
         <v>1</v>
       </c>
       <c r="D684">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E684">
         <v>0</v>
@@ -12073,16 +12073,16 @@
         <v>24</v>
       </c>
       <c r="B685">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C685">
         <v>1</v>
       </c>
       <c r="D685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.2">
@@ -12090,16 +12090,16 @@
         <v>24</v>
       </c>
       <c r="B686">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C686">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.2">
@@ -12107,13 +12107,13 @@
         <v>24</v>
       </c>
       <c r="B687">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C687">
         <v>0</v>
       </c>
       <c r="D687">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E687">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>24</v>
       </c>
       <c r="B688">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C688">
         <v>0</v>
@@ -12141,13 +12141,13 @@
         <v>24</v>
       </c>
       <c r="B689">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
       <c r="D689">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E689">
         <v>0</v>
@@ -12158,16 +12158,16 @@
         <v>24</v>
       </c>
       <c r="B690">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
@@ -12175,16 +12175,16 @@
         <v>24</v>
       </c>
       <c r="B691">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C691">
         <v>1</v>
       </c>
       <c r="D691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
@@ -12192,10 +12192,10 @@
         <v>24</v>
       </c>
       <c r="B692">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D692">
         <v>1</v>
@@ -12209,16 +12209,16 @@
         <v>24</v>
       </c>
       <c r="B693">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D693">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
@@ -12226,16 +12226,16 @@
         <v>24</v>
       </c>
       <c r="B694">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C694">
         <v>1</v>
       </c>
       <c r="D694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.2">
@@ -12243,13 +12243,13 @@
         <v>24</v>
       </c>
       <c r="B695">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E695">
         <v>0</v>
@@ -12260,13 +12260,13 @@
         <v>24</v>
       </c>
       <c r="B696">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C696">
         <v>0</v>
       </c>
       <c r="D696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E696">
         <v>0</v>
@@ -12277,10 +12277,10 @@
         <v>24</v>
       </c>
       <c r="B697">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -12294,16 +12294,16 @@
         <v>24</v>
       </c>
       <c r="B698">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C698">
         <v>1</v>
       </c>
       <c r="D698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
@@ -12311,16 +12311,16 @@
         <v>24</v>
       </c>
       <c r="B699">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C699">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D699">
         <v>0</v>
       </c>
       <c r="E699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
@@ -12328,13 +12328,13 @@
         <v>24</v>
       </c>
       <c r="B700">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C700">
         <v>0</v>
       </c>
       <c r="D700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E700">
         <v>0</v>
@@ -12345,10 +12345,10 @@
         <v>24</v>
       </c>
       <c r="B701">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D701">
         <v>1</v>
@@ -12359,10 +12359,10 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A702">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C702">
         <v>1</v>
@@ -12379,10 +12379,10 @@
         <v>25</v>
       </c>
       <c r="B703">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C703">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -12396,13 +12396,13 @@
         <v>25</v>
       </c>
       <c r="B704">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C704">
         <v>0</v>
       </c>
       <c r="D704">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E704">
         <v>0</v>
@@ -12413,7 +12413,7 @@
         <v>25</v>
       </c>
       <c r="B705">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C705">
         <v>0</v>
@@ -12430,13 +12430,13 @@
         <v>25</v>
       </c>
       <c r="B706">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E706">
         <v>0</v>
@@ -12447,10 +12447,10 @@
         <v>25</v>
       </c>
       <c r="B707">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C707">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D707">
         <v>1</v>
@@ -12464,13 +12464,13 @@
         <v>25</v>
       </c>
       <c r="B708">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C708">
         <v>0</v>
       </c>
       <c r="D708">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E708">
         <v>0</v>
@@ -12481,13 +12481,13 @@
         <v>25</v>
       </c>
       <c r="B709">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C709">
         <v>0</v>
       </c>
       <c r="D709">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E709">
         <v>0</v>
@@ -12498,16 +12498,16 @@
         <v>25</v>
       </c>
       <c r="B710">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C710">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D710">
         <v>1</v>
       </c>
       <c r="E710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
@@ -12515,13 +12515,13 @@
         <v>25</v>
       </c>
       <c r="B711">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C711">
         <v>1</v>
       </c>
       <c r="D711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E711">
         <v>1</v>
@@ -12532,16 +12532,16 @@
         <v>25</v>
       </c>
       <c r="B712">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C712">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D712">
         <v>0</v>
       </c>
       <c r="E712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.2">
@@ -12549,16 +12549,16 @@
         <v>25</v>
       </c>
       <c r="B713">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
@@ -12566,16 +12566,16 @@
         <v>25</v>
       </c>
       <c r="B714">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D714">
         <v>1</v>
       </c>
       <c r="E714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.2">
@@ -12583,13 +12583,13 @@
         <v>25</v>
       </c>
       <c r="B715">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C715">
         <v>0</v>
       </c>
       <c r="D715">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E715">
         <v>0</v>
@@ -12600,13 +12600,13 @@
         <v>25</v>
       </c>
       <c r="B716">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C716">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D716">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E716">
         <v>0</v>
@@ -12617,10 +12617,10 @@
         <v>25</v>
       </c>
       <c r="B717">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C717">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D717">
         <v>1</v>
@@ -12634,13 +12634,13 @@
         <v>25</v>
       </c>
       <c r="B718">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D718">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E718">
         <v>0</v>
@@ -12651,13 +12651,13 @@
         <v>25</v>
       </c>
       <c r="B719">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C719">
         <v>1</v>
       </c>
       <c r="D719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E719">
         <v>0</v>
@@ -12668,13 +12668,13 @@
         <v>25</v>
       </c>
       <c r="B720">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C720">
         <v>1</v>
       </c>
       <c r="D720">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E720">
         <v>0</v>
@@ -12685,13 +12685,13 @@
         <v>25</v>
       </c>
       <c r="B721">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C721">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E721">
         <v>0</v>
@@ -12702,13 +12702,13 @@
         <v>25</v>
       </c>
       <c r="B722">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C722">
         <v>0</v>
       </c>
       <c r="D722">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E722">
         <v>0</v>
@@ -12719,16 +12719,16 @@
         <v>25</v>
       </c>
       <c r="B723">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
@@ -12736,16 +12736,16 @@
         <v>25</v>
       </c>
       <c r="B724">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
@@ -12753,13 +12753,13 @@
         <v>25</v>
       </c>
       <c r="B725">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C725">
         <v>0</v>
       </c>
       <c r="D725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E725">
         <v>0</v>
@@ -12770,7 +12770,7 @@
         <v>25</v>
       </c>
       <c r="B726">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C726">
         <v>0</v>
@@ -12787,10 +12787,10 @@
         <v>25</v>
       </c>
       <c r="B727">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C727">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -12804,15 +12804,32 @@
         <v>25</v>
       </c>
       <c r="B728">
+        <v>26</v>
+      </c>
+      <c r="C728">
+        <v>1</v>
+      </c>
+      <c r="D728">
+        <v>1</v>
+      </c>
+      <c r="E728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>25</v>
+      </c>
+      <c r="B729">
         <v>27</v>
       </c>
-      <c r="C728">
-        <v>0</v>
-      </c>
-      <c r="D728">
-        <v>0</v>
-      </c>
-      <c r="E728">
+      <c r="C729">
+        <v>0</v>
+      </c>
+      <c r="D729">
+        <v>0</v>
+      </c>
+      <c r="E729">
         <v>0</v>
       </c>
     </row>
